--- a/public/templates/template_penjualan.xlsx
+++ b/public/templates/template_penjualan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 5\Praktek\Big Data\Minggu2\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344DCE2-52A7-4407-A062-22554C957D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568451F-E472-4B32-BF29-7D54D591963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6BA869F-E03D-49A7-BB9F-3D842EEB26F0}"/>
   </bookViews>
@@ -34,30 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>kode_item</t>
-  </si>
-  <si>
-    <t>nama_item</t>
-  </si>
-  <si>
-    <t>jenis</t>
-  </si>
-  <si>
-    <t>jumlah</t>
-  </si>
-  <si>
-    <t>satuan</t>
-  </si>
-  <si>
-    <t>total_harga</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Kode Item</t>
+  </si>
+  <si>
+    <t>Nama Item</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Total Harga</t>
+  </si>
+  <si>
+    <t>Merek</t>
   </si>
 </sst>
 </file>
@@ -414,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED405648-AB50-4DF7-BB3F-E1DCF7EE929F}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,20 +438,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
